--- a/data/transformed_data_2018.xlsx
+++ b/data/transformed_data_2018.xlsx
@@ -2372,7 +2372,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>645918.6519021336</v>
+        <v>656140.4635021336</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2708,7 +2708,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>84282.94</v>
+        <v>72483.3284</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2876,7 +2876,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11270</v>
+        <v>9692.200000000001</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -5115,7 +5115,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>15363.28761479374</v>
+        <v>15155.15521479374</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5451,7 +5451,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>44.1</v>
+        <v>37.926</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -5619,7 +5619,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1530.76</v>
+        <v>1316.4536</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -7858,7 +7858,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17703.2016916074</v>
+        <v>18406.9004916074</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -8194,7 +8194,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>13864.06</v>
+        <v>11923.0916</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -8362,7 +8362,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8837.639999999999</v>
+        <v>7600.3704</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -10601,7 +10601,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4790.482811379801</v>
+        <v>4658.770811379801</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -10937,7 +10937,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>841.8199999999999</v>
+        <v>723.9652</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -11105,7 +11105,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1782.62</v>
+        <v>1533.0532</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -13344,7 +13344,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17765.6041883357</v>
+        <v>18337.8653883357</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -13680,7 +13680,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>15144.92</v>
+        <v>13024.6312</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -13848,7 +13848,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11057.34</v>
+        <v>9509.312399999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -16073,7 +16073,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>21940.69027027027</v>
+        <v>21842.18067027027</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -16409,7 +16409,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1274</v>
+        <v>1095.64</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -16577,7 +16577,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1977.64</v>
+        <v>1700.7704</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -18816,7 +18816,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16318.20064637269</v>
+        <v>15739.90264637269</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -19152,7 +19152,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>8079.12</v>
+        <v>6948.0432</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -19320,7 +19320,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12209.82</v>
+        <v>10500.4452</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -21559,7 +21559,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>11142.32010753912</v>
+        <v>11453.62690753912</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -21895,7 +21895,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9903.879999999999</v>
+        <v>8517.336799999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -22063,7 +22063,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7680.26</v>
+        <v>6605.0236</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -24302,7 +24302,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>17834.10833513513</v>
+        <v>17116.27793513513</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -24638,7 +24638,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6002.5</v>
+        <v>5162.15</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -24806,7 +24806,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>11129.86</v>
+        <v>9571.679599999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -27045,7 +27045,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>16831.63031351351</v>
+        <v>16293.80631351351</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -27381,7 +27381,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1706.18</v>
+        <v>1467.3148</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -27549,7 +27549,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5547.78</v>
+        <v>4771.0908</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -29760,7 +29760,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10065.27019174964</v>
+        <v>10432.00579174965</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -30096,7 +30096,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>9488.360000000001</v>
+        <v>8159.9896</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -30264,7 +30264,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>6868.82</v>
+        <v>5907.1852</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -32503,7 +32503,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>115589.9032085348</v>
+        <v>115154.2932085348</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -32839,7 +32839,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>5327.28</v>
+        <v>4581.4608</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -33007,7 +33007,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8438.780000000001</v>
+        <v>7257.3508</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -35218,7 +35218,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>8827.70868278805</v>
+        <v>8682.962682788051</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -35554,7 +35554,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>98.98</v>
+        <v>85.1228</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -35722,7 +35722,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1132.88</v>
+        <v>974.2768</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -37947,7 +37947,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>10377.15183214794</v>
+        <v>10044.99063214794</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -38283,7 +38283,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1087.8</v>
+        <v>935.508</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -38451,7 +38451,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3460.38</v>
+        <v>2975.9268</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -40662,7 +40662,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4463.053714935988</v>
+        <v>4421.070514935987</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -40998,7 +40998,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3929.8</v>
+        <v>3379.628</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -41166,7 +41166,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4229.68</v>
+        <v>3637.5248</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -43405,7 +43405,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4171.285299004267</v>
+        <v>4083.477299004267</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -43741,7 +43741,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7853.72</v>
+        <v>6754.1992</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -43909,7 +43909,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8480.92</v>
+        <v>7293.5912</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -46148,7 +46148,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14060.06499061166</v>
+        <v>13237.68819061166</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -46484,7 +46484,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6133.82</v>
+        <v>5275.0852</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -46652,7 +46652,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>12007.94</v>
+        <v>10326.8284</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -48891,7 +48891,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>5874.819633570411</v>
+        <v>5754.906833570411</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -49227,7 +49227,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6609.12</v>
+        <v>5683.8432</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -49395,7 +49395,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7465.639999999999</v>
+        <v>6420.4504</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -51634,7 +51634,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9690.785231294452</v>
+        <v>9010.822031294454</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -51970,7 +51970,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>402.78</v>
+        <v>346.3908</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -52138,7 +52138,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5259.66</v>
+        <v>4523.3076</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -54363,7 +54363,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>3636.420982645804</v>
+        <v>3642.457782645803</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -54699,7 +54699,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1629.74</v>
+        <v>1401.5764</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -54867,7 +54867,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>1586.62</v>
+        <v>1364.4932</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -57092,7 +57092,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>9560.766665718349</v>
+        <v>9418.90186571835</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -57428,7 +57428,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>1906.1</v>
+        <v>1639.246</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -57596,7 +57596,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2919.42</v>
+        <v>2510.7012</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -59835,7 +59835,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>14531.93959089616</v>
+        <v>14822.52919089616</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -60171,7 +60171,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>6219.08</v>
+        <v>5348.408799999999</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -60339,7 +60339,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4143.44</v>
+        <v>3563.3584</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -62578,7 +62578,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>44338.85457752489</v>
+        <v>46242.23017752489</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -62914,7 +62914,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>21281.68</v>
+        <v>18302.2448</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -63082,7 +63082,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>7686.139999999999</v>
+        <v>6610.0804</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -65321,7 +65321,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>4483.958606543385</v>
+        <v>4347.444606543386</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -65657,7 +65657,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>3200.68</v>
+        <v>2752.5848</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -65825,7 +65825,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>4175.78</v>
+        <v>3591.1708</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -68050,7 +68050,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>109686.7655061166</v>
+        <v>105942.1659061166</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -68386,7 +68386,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>20351.66</v>
+        <v>17502.4276</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -68554,7 +68554,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>47098.8</v>
+        <v>40504.968</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -70793,7 +70793,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>40594.88284665719</v>
+        <v>39804.33644665719</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -71129,7 +71129,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2374.54</v>
+        <v>2042.1044</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -71297,7 +71297,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>8021.3</v>
+        <v>6898.317999999999</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -73536,7 +73536,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>34771.1104512091</v>
+        <v>36473.3508512091</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -73872,7 +73872,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>18011.42</v>
+        <v>15489.8212</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -74040,7 +74040,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>5852.559999999999</v>
+        <v>5033.2016</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -76279,7 +76279,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22512.04250981507</v>
+        <v>24053.34730981508</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -76615,7 +76615,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>36410.92</v>
+        <v>31313.3912</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -76783,7 +76783,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>25401.6</v>
+        <v>21845.376</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -79022,7 +79022,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>22131.46186571835</v>
+        <v>22678.47826571835</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -79358,7 +79358,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>7613.62</v>
+        <v>6547.7132</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -79526,7 +79526,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>3706.36</v>
+        <v>3187.4696</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -81765,7 +81765,7 @@
         <v>13</v>
       </c>
       <c r="D131">
-        <v>19215.14323812233</v>
+        <v>19214.86883812233</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -82101,7 +82101,7 @@
         <v>13</v>
       </c>
       <c r="D155">
-        <v>2777.32</v>
+        <v>2388.4952</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -82269,7 +82269,7 @@
         <v>13</v>
       </c>
       <c r="D167">
-        <v>2779.28</v>
+        <v>2390.1808</v>
       </c>
     </row>
     <row r="168" spans="1:4">
